--- a/data608-knowledge-and-visual-analytics/stories/story-1/story-1-data.xlsx
+++ b/data608-knowledge-and-visual-analytics/stories/story-1/story-1-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\cuny-msds\data608-knowledge-and-visual-analytics\stories\story-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E99925-0D88-468B-BF81-5E9CE4544821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77B6CFA-2823-4269-9FF1-7514BEF51D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A2778B3-48D0-4E25-9AD9-EF6DF493084B}"/>
   </bookViews>
@@ -16,11 +16,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$H$52</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$G$26:$G$52</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$G$2:$G$25</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$26:$G$52</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$G$2:$G$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="37" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
   <si>
     <t>State</t>
   </si>
@@ -235,6 +239,9 @@
   </si>
   <si>
     <t xml:space="preserve">                        Red States</t>
+  </si>
+  <si>
+    <t>States</t>
   </si>
 </sst>
 </file>
@@ -280,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -295,7 +302,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -369,7 +375,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2032212325716114"/>
+          <c:x val="0.19943819597160298"/>
           <c:y val="2.7777889540240523E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -427,7 +433,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$9:$I$10</c:f>
+              <c:f>Sheet1!$L$9:$L$10</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -441,7 +447,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$9</c:f>
+              <c:f>Sheet1!$M$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -462,7 +468,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$10</c:f>
+              <c:f>Sheet1!$M$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -483,7 +489,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$9:$I$10</c:f>
+              <c:f>Sheet1!$L$9:$L$10</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -497,7 +503,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$10:$J$10</c:f>
+              <c:f>Sheet1!$L$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -554,7 +560,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -736,7 +742,281 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1"/>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="sng" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Proportion of State Revenue from Federal Funding</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000003-F19A-49D8-96A8-E934EEE4A927}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>Democratic</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataLabels>
+            <cx:numFmt formatCode="0%" sourceLinked="0"/>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+            <cx:separator>, </cx:separator>
+            <cx:dataLabelHidden idx="1"/>
+            <cx:dataLabelHidden idx="3"/>
+            <cx:dataLabelHidden idx="5"/>
+            <cx:dataLabelHidden idx="6"/>
+            <cx:dataLabelHidden idx="12"/>
+            <cx:dataLabelHidden idx="13"/>
+            <cx:dataLabelHidden idx="14"/>
+            <cx:dataLabelHidden idx="16"/>
+            <cx:dataLabelHidden idx="17"/>
+            <cx:dataLabelHidden idx="18"/>
+            <cx:dataLabelHidden idx="19"/>
+            <cx:dataLabelHidden idx="20"/>
+            <cx:dataLabelHidden idx="21"/>
+            <cx:dataLabelHidden idx="23"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000005-F19A-49D8-96A8-E934EEE4A927}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v> </cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000006-F19A-49D8-96A8-E934EEE4A927}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>Republican</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF3300"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataLabels>
+            <cx:numFmt formatCode="0%" sourceLinked="0"/>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+            <cx:separator>, </cx:separator>
+            <cx:dataLabelHidden idx="1"/>
+            <cx:dataLabelHidden idx="2"/>
+            <cx:dataLabelHidden idx="3"/>
+            <cx:dataLabelHidden idx="4"/>
+            <cx:dataLabelHidden idx="7"/>
+            <cx:dataLabelHidden idx="8"/>
+            <cx:dataLabelHidden idx="9"/>
+            <cx:dataLabelHidden idx="11"/>
+            <cx:dataLabelHidden idx="12"/>
+            <cx:dataLabelHidden idx="13"/>
+            <cx:dataLabelHidden idx="14"/>
+            <cx:dataLabelHidden idx="16"/>
+            <cx:dataLabelHidden idx="18"/>
+            <cx:dataLabelHidden idx="20"/>
+            <cx:dataLabelHidden idx="21"/>
+            <cx:dataLabelHidden idx="22"/>
+            <cx:dataLabelHidden idx="24"/>
+            <cx:dataLabelHidden idx="25"/>
+          </cx:dataLabels>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.10000000000000001"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>State Revenue from Federal Funding (%)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1400" b="1"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>State Revenue from Federal Funding (%)</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:numFmt formatCode="0%" sourceLinked="0"/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1279,20 +1559,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="373">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>113180</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>105054</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>70837</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>182935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>151280</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>81242</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>79322</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>159123</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1317,13 +2112,91 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1781175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>72962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Chart 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B741AE3B-F84D-233C-08D6-3B1B73630BE1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13031881" y="4835462"/>
+              <a:ext cx="8259295" cy="4700743"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Richie" refreshedDate="45697.505326157407" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="51" xr:uid="{075DCFA7-5364-436C-8235-1D9556C87BB8}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G52" sheet="Sheet1"/>
+    <worksheetSource ref="A1:H52" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Index" numFmtId="0">
@@ -1824,8 +2697,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4113E66-FEC5-44C1-87BA-FB482DBCA221}" name="PivotTable19" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="I2:J5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4113E66-FEC5-44C1-87BA-FB482DBCA221}" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="L2:M5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2201,10 +3074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FA0E32-5337-4E58-B474-95EF7BB12F80}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2212,15 +3085,17 @@
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -2231,19 +3106,22 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>51</v>
       </c>
@@ -2253,26 +3131,32 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4" t="str">
+        <f t="shared" ref="D2:D33" si="0">IF(C2="Blue","Democratic","Republican")</f>
+        <v>Democratic</v>
+      </c>
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>0.51</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>0.17199999999999999</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>799305</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="L2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>50</v>
       </c>
@@ -2282,26 +3166,32 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>0.59</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>0.16500000000000001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>801515</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="L3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="6">
+      <c r="M3">
         <v>41.070833333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>49</v>
       </c>
@@ -2311,26 +3201,32 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E4" s="1">
         <v>6.7</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>0.71</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>0.14599999999999999</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>471820</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="L4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="6">
+      <c r="M4">
         <v>52.837037037037042</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>48</v>
       </c>
@@ -2340,26 +3236,32 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E5" s="1">
         <v>7.6</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>0.73</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>0.14499999999999999</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>3862171</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="L5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="6">
+      <c r="M5">
         <v>47.3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>47</v>
       </c>
@@ -2369,20 +3271,26 @@
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E6" s="1">
         <v>8.4</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>0.65</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>0.17699999999999999</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>2152262</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44</v>
       </c>
@@ -2392,20 +3300,26 @@
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E7" s="1">
         <v>17.3</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>0.6</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>733860</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43</v>
       </c>
@@ -2415,26 +3329,32 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E8" s="1">
         <v>17.7</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>0.76</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>1082968</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="L8" t="s">
         <v>61</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42</v>
       </c>
@@ -2444,26 +3364,32 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E9" s="1">
         <v>18.600000000000001</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>0.46</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>0.26300000000000001</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>93595</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="L9" t="s">
         <v>63</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>41.070833333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40</v>
       </c>
@@ -2473,26 +3399,32 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E10" s="1">
         <v>21</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>0.78</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>520389</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="L10" t="s">
         <v>64</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>52.837037037037042</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>38</v>
       </c>
@@ -2502,26 +3434,32 @@
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E11" s="1">
         <v>26.3</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>0.85</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>413967</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="L11" t="s">
         <v>62</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>47.3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>37</v>
       </c>
@@ -2531,20 +3469,26 @@
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E12" s="1">
         <v>28.3</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>0.88</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>0.16400000000000001</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>239398</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>31</v>
       </c>
@@ -2554,20 +3498,26 @@
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E13" s="1">
         <v>34.799999999999997</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>0.76</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>0.25700000000000001</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>77322</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>26</v>
       </c>
@@ -2577,20 +3527,26 @@
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E14" s="1">
         <v>44.3</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>0.9</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>0.21</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>111102</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>25</v>
       </c>
@@ -2600,20 +3556,26 @@
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E15" s="1">
         <v>48.6</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>0.17599999999999999</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>340181</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>24</v>
       </c>
@@ -2623,20 +3585,26 @@
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E16" s="1">
         <v>49.2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>1.5</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>0.128</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>43130</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>23</v>
       </c>
@@ -2646,20 +3614,26 @@
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E17" s="1">
         <v>50.3</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>1.21</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>316461</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>21</v>
       </c>
@@ -2669,20 +3643,26 @@
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E18" s="1">
         <v>55.3</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>0.92</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>0.24</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>965067</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2692,20 +3672,26 @@
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E19" s="1">
         <v>60</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>0.99</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>0.22900000000000001</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>658992</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>14</v>
       </c>
@@ -2715,20 +3701,26 @@
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E20" s="1">
         <v>71.7</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>1.91</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>0.182</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>707085</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>13</v>
       </c>
@@ -2738,20 +3730,26 @@
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E21" s="1">
         <v>75.8</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>1.79</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>0.21199999999999999</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>512280</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>11</v>
       </c>
@@ -2761,20 +3759,26 @@
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E22" s="1">
         <v>77.099999999999994</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>1.94</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>0.20599999999999999</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>108023</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>10</v>
       </c>
@@ -2784,20 +3788,26 @@
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E23" s="1">
         <v>78.8</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>1.78</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>0.23300000000000001</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>91081</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>5</v>
       </c>
@@ -2807,20 +3817,26 @@
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E24" s="1">
         <v>87.7</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>1.71</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>0.32200000000000001</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>174796</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -2830,20 +3846,26 @@
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Democratic</v>
+      </c>
+      <c r="E25" s="1">
         <v>100</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="2">
         <v>3.42</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>0.307</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>130202</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>46</v>
       </c>
@@ -2853,20 +3875,26 @@
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Republican</v>
+      </c>
+      <c r="E26" s="1">
         <v>10.6</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>0.65</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>0.18099999999999999</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="4">
         <v>178421</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45</v>
       </c>
@@ -2876,20 +3904,26 @@
       <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Republican</v>
+      </c>
+      <c r="E27" s="1">
         <v>15.6</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>0.7</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>0.187</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="4">
         <v>422306</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>41</v>
       </c>
@@ -2899,20 +3933,26 @@
       <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Republican</v>
+      </c>
+      <c r="E28" s="1">
         <v>19.2</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>0.66</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
         <v>0.21</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>872748</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>39</v>
       </c>
@@ -2922,20 +3962,26 @@
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Republican</v>
+      </c>
+      <c r="E29" s="1">
         <v>25.9</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="2">
         <v>0.78</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>0.191</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>805397</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>36</v>
       </c>
@@ -2945,20 +3991,26 @@
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Republican</v>
+      </c>
+      <c r="E30" s="1">
         <v>28.3</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <v>0.79</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="3">
         <v>0.189</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H30" s="4">
         <v>1579503</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>35</v>
       </c>
@@ -2968,20 +4020,26 @@
       <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Republican</v>
+      </c>
+      <c r="E31" s="1">
         <v>28.5</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <v>0.79</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="3">
         <v>0.187</v>
       </c>
-      <c r="G31" s="4">
+      <c r="H31" s="4">
         <v>272586</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>34</v>
       </c>
@@ -2991,20 +4049,26 @@
       <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Republican</v>
+      </c>
+      <c r="E32" s="1">
         <v>29.2</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="2">
         <v>0.75</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>0.22900000000000001</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H32" s="4">
         <v>2563508</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -3014,20 +4078,26 @@
       <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Republican</v>
+      </c>
+      <c r="E33" s="1">
         <v>31.1</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33" s="2">
         <v>0.89</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>0.16800000000000001</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <v>226012</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3037,20 +4107,26 @@
       <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="4" t="str">
+        <f t="shared" ref="D34:D65" si="1">IF(C34="Blue","Democratic","Republican")</f>
+        <v>Republican</v>
+      </c>
+      <c r="E34" s="1">
         <v>34.6</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F34" s="2">
         <v>0.81</v>
       </c>
-      <c r="F34" s="3">
+      <c r="G34" s="3">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>523240</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>30</v>
       </c>
@@ -3060,20 +4136,26 @@
       <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Republican</v>
+      </c>
+      <c r="E35" s="1">
         <v>38.200000000000003</v>
       </c>
-      <c r="E35" s="2">
+      <c r="F35" s="2">
         <v>0.97</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>0.155</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H35" s="4">
         <v>248923</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>29</v>
       </c>
@@ -3083,20 +4165,26 @@
       <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Republican</v>
+      </c>
+      <c r="E36" s="1">
         <v>39.1</v>
       </c>
-      <c r="E36" s="2">
+      <c r="F36" s="2">
         <v>0.97</v>
       </c>
-      <c r="F36" s="3">
+      <c r="G36" s="3">
         <v>0.15</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>72421</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>28</v>
       </c>
@@ -3106,20 +4194,26 @@
       <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Republican</v>
+      </c>
+      <c r="E37" s="1">
         <v>41.7</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F37" s="2">
         <v>0.88</v>
       </c>
-      <c r="F37" s="3">
+      <c r="G37" s="3">
         <v>0.215</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>766919</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>27</v>
       </c>
@@ -3129,20 +4223,26 @@
       <c r="C38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Republican</v>
+      </c>
+      <c r="E38" s="1">
         <v>42.1</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>0.85</v>
       </c>
-      <c r="F38" s="3">
+      <c r="G38" s="3">
         <v>0.22700000000000001</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>176240</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>22</v>
       </c>
@@ -3152,20 +4252,26 @@
       <c r="C39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Republican</v>
+      </c>
+      <c r="E39" s="1">
         <v>55.1</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F39" s="2">
         <v>0.92</v>
       </c>
-      <c r="F39" s="3">
+      <c r="G39" s="3">
         <v>0.25700000000000001</v>
       </c>
-      <c r="G39" s="4">
+      <c r="H39" s="4">
         <v>497036</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>20</v>
       </c>
@@ -3175,20 +4281,26 @@
       <c r="C40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Republican</v>
+      </c>
+      <c r="E40" s="1">
         <v>58.1</v>
       </c>
-      <c r="E40" s="2">
+      <c r="F40" s="2">
         <v>0.91</v>
       </c>
-      <c r="F40" s="3">
+      <c r="G40" s="3">
         <v>0.28899999999999998</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <v>50172</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>19</v>
       </c>
@@ -3198,20 +4310,26 @@
       <c r="C41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Republican</v>
+      </c>
+      <c r="E41" s="1">
         <v>59.6</v>
       </c>
-      <c r="E41" s="2">
+      <c r="F41" s="2">
         <v>1.3</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>254134</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>18</v>
       </c>
@@ -3221,20 +4339,26 @@
       <c r="C42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Republican</v>
+      </c>
+      <c r="E42" s="1">
         <v>60</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42" s="2">
         <v>0.96</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>0.26600000000000001</v>
       </c>
-      <c r="G42" s="4">
+      <c r="H42" s="4">
         <v>74113</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -3244,20 +4368,26 @@
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Republican</v>
+      </c>
+      <c r="E43" s="1">
         <v>60.5</v>
       </c>
-      <c r="E43" s="2">
+      <c r="F43" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>0.218</v>
       </c>
-      <c r="G43" s="4">
+      <c r="H43" s="4">
         <v>118791</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>15</v>
       </c>
@@ -3267,20 +4397,26 @@
       <c r="C44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Republican</v>
+      </c>
+      <c r="E44" s="1">
         <v>64.400000000000006</v>
       </c>
-      <c r="E44" s="2">
+      <c r="F44" s="2">
         <v>1.6</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>0.19500000000000001</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H44" s="4">
         <v>322259</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>12</v>
       </c>
@@ -3290,20 +4426,26 @@
       <c r="C45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Republican</v>
+      </c>
+      <c r="E45" s="1">
         <v>76</v>
       </c>
-      <c r="E45" s="2">
+      <c r="F45" s="2">
         <v>1.33</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>0.29799999999999999</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>309601</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>9</v>
       </c>
@@ -3313,20 +4455,26 @@
       <c r="C46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Republican</v>
+      </c>
+      <c r="E46" s="1">
         <v>79.5</v>
       </c>
-      <c r="E46" s="2">
+      <c r="F46" s="2">
         <v>1.43</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>0.318</v>
       </c>
-      <c r="G46" s="4">
+      <c r="H46" s="4">
         <v>70560</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>8</v>
       </c>
@@ -3336,20 +4484,26 @@
       <c r="C47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Republican</v>
+      </c>
+      <c r="E47" s="1">
         <v>80.099999999999994</v>
       </c>
-      <c r="E47" s="2">
+      <c r="F47" s="2">
         <v>1.62</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>0.28499999999999998</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>508344</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>7</v>
       </c>
@@ -3359,20 +4513,26 @@
       <c r="C48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Republican</v>
+      </c>
+      <c r="E48" s="1">
         <v>84.2</v>
       </c>
-      <c r="E48" s="2">
+      <c r="F48" s="2">
         <v>1.68</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>0.30099999999999999</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H48" s="4">
         <v>277747</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>6</v>
       </c>
@@ -3382,20 +4542,26 @@
       <c r="C49" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Republican</v>
+      </c>
+      <c r="E49" s="1">
         <v>86.4</v>
       </c>
-      <c r="E49" s="2">
+      <c r="F49" s="2">
         <v>1.9</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>0.26700000000000002</v>
       </c>
-      <c r="G49" s="4">
+      <c r="H49" s="4">
         <v>300152</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4</v>
       </c>
@@ -3405,20 +4571,26 @@
       <c r="C50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Republican</v>
+      </c>
+      <c r="E50" s="1">
         <v>90.5</v>
       </c>
-      <c r="E50" s="2">
+      <c r="F50" s="2">
         <v>2.66</v>
       </c>
-      <c r="F50" s="3">
+      <c r="G50" s="3">
         <v>0.25900000000000001</v>
       </c>
-      <c r="G50" s="4">
+      <c r="H50" s="4">
         <v>146401</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>3</v>
       </c>
@@ -3428,20 +4600,26 @@
       <c r="C51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Republican</v>
+      </c>
+      <c r="E51" s="1">
         <v>93.5</v>
       </c>
-      <c r="E51" s="2">
+      <c r="F51" s="2">
         <v>2.65</v>
       </c>
-      <c r="F51" s="3">
+      <c r="G51" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G51" s="4">
+      <c r="H51" s="4">
         <v>67337</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -3451,26 +4629,27 @@
       <c r="C52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Republican</v>
+      </c>
+      <c r="E52" s="1">
         <v>94.6</v>
       </c>
-      <c r="E52" s="2">
+      <c r="F52" s="2">
         <v>2.91</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>0.27</v>
       </c>
-      <c r="G52" s="4">
+      <c r="H52" s="4">
         <v>99511</v>
       </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G52" xr:uid="{41FA0E32-5337-4E58-B474-95EF7BB12F80}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G52">
-      <sortCondition ref="C2:C52"/>
-      <sortCondition ref="D2:D52"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:H52" xr:uid="{41FA0E32-5337-4E58-B474-95EF7BB12F80}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
